--- a/GiaSu.xlsx
+++ b/GiaSu.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tên</t>
   </si>
@@ -40,31 +40,13 @@
     <t>Thời gian kết thúc</t>
   </si>
   <si>
-    <t>Sỷ Bình</t>
-  </si>
-  <si>
-    <t>0123456787</t>
-  </si>
-  <si>
-    <t>binh@gmail.com</t>
-  </si>
-  <si>
-    <t>Bk DaNang</t>
-  </si>
-  <si>
-    <t>CNTT</t>
-  </si>
-  <si>
-    <t>12/02/2020</t>
-  </si>
-  <si>
-    <t>12/04/2020</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>{"formula":0}</t>
   </si>
 </sst>
 </file>
@@ -445,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="7" width="12" customWidth="1"/>
@@ -482,7 +464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -491,35 +473,6 @@
       </c>
       <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1999</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <f>1</f>
       </c>
     </row>
   </sheetData>
